--- a/crop_data/xlsx_data/crop-GTAP-003-yr4.xlsx
+++ b/crop_data/xlsx_data/crop-GTAP-003-yr4.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\postdoc\CLMcrop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saket\GitHub\Climate-Ag-Simulation\crop_data\xlsx_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E4C298-C28D-4AF7-9C92-F07E4077DF02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rice" sheetId="1" r:id="rId1"/>
-    <sheet name="Maize" sheetId="2" r:id="rId2"/>
+    <sheet name="Corn" sheetId="2" r:id="rId2"/>
     <sheet name="Soybean" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -1024,7 +1025,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1426,7 +1427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17618,11 +17619,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36856,15 +36857,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
